--- a/学习文档/presto/presto与hive的性能对比测试.xlsx
+++ b/学习文档/presto/presto与hive的性能对比测试.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myStudy\学习文档\presto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>presto与hive性能测试比较</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -74,11 +74,6 @@
   </si>
   <si>
     <t>53s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>select device_id,mete_id from hive.ods.ods_power_original_data where 
-dt='20191211' and device_id='01010100090160000135' limit 10;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -143,10 +138,6 @@
   </si>
   <si>
     <t>query3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>query5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -239,12 +230,163 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>select device_id,mete_id from hive.ods.ods_power_original_data where 
+dt='20191211' and device_id='01010100090160000135' limit 10;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>query6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order by</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>select device_id,mete_id,report_time from ods.ods_power_original_data where 
+dt='20191211' and device_id='01010100090160000135' order by report_time limit 10;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>48s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>68s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF586F76"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结论：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF586F76"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.presto</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF586F76"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整体查询速度比</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF586F76"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>hive</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF586F76"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">快
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF586F76"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        2.presto</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF586F76"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在做条件查询时效果特别显著，在表关联方面也有不错的效果
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF586F76"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        3.presto</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF586F76"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在做聚合查询和子查询时效果和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF586F76"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>hive</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF586F76"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>差不多</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +443,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF586F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF586F76"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -324,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +503,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,6 +514,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,43 +817,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>2</v>
@@ -696,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>7</v>
@@ -707,39 +873,39 @@
     </row>
     <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
@@ -749,21 +915,21 @@
     </row>
     <row r="12" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -771,82 +937,109 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="3"/>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E10:E14"/>
+  <mergeCells count="8">
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E10:E15"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
